--- a/Excel/EposItem.xlsx
+++ b/Excel/EposItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D0CBD37-63AD-40E5-8C4C-87E640A26350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91826D9F-9135-4E33-81E1-5A5ABA87BE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>ID</t>
   </si>
@@ -143,6 +143,10 @@
   </si>
   <si>
     <t>UseCount</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Range</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -220,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -288,11 +292,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -307,6 +352,18 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -589,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -604,7 +661,7 @@
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -620,11 +677,14 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G1" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="3">
         <v>1050001</v>
       </c>
@@ -640,11 +700,14 @@
       <c r="E2" s="4">
         <v>10</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F2" s="7">
+        <v>0</v>
+      </c>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1050002</v>
       </c>
@@ -660,11 +723,14 @@
       <c r="E3" s="4">
         <v>20</v>
       </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F3" s="7">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>1050003</v>
       </c>
@@ -680,11 +746,14 @@
       <c r="E4" s="4">
         <v>20</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G4" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>1050004</v>
       </c>
@@ -700,11 +769,14 @@
       <c r="E5" s="4">
         <v>30</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="7">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G5" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>1050005</v>
       </c>
@@ -720,11 +792,14 @@
       <c r="E6" s="4">
         <v>50</v>
       </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>1050006</v>
       </c>
@@ -740,11 +815,14 @@
       <c r="E7" s="4">
         <v>10</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>1050007</v>
       </c>
@@ -760,11 +838,14 @@
       <c r="E8" s="4">
         <v>20</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>1050008</v>
       </c>
@@ -780,11 +861,14 @@
       <c r="E9" s="4">
         <v>30</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>1050009</v>
       </c>
@@ -800,11 +884,14 @@
       <c r="E10" s="4">
         <v>20</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>1050010</v>
       </c>
@@ -820,7 +907,10 @@
       <c r="E11" s="4">
         <v>40</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
         <v>0</v>
       </c>
     </row>

--- a/Excel/EposItem.xlsx
+++ b/Excel/EposItem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91826D9F-9135-4E33-81E1-5A5ABA87BE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224EB883-59B9-4583-BD55-0C8F1EFE26D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>Range</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -233,102 +237,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -337,33 +255,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -646,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -659,259 +560,293 @@
     <col min="3" max="3" width="11.796875" customWidth="1"/>
     <col min="4" max="4" width="11.296875" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="3">
+      <c r="H1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
         <v>1050001</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>9010001</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="7">
-        <v>0</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="3">
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="2">
         <v>1050002</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>9010002</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>20</v>
       </c>
-      <c r="F3" s="7">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3">
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="2">
         <v>1050003</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>9010003</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="3">
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
         <v>1050004</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>9010004</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>30</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="3">
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="2">
         <v>1050005</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>9010005</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>50</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="3">
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="2">
         <v>1050006</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>9010006</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="3">
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="2">
         <v>1050007</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>9010007</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>20</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="3">
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="2">
         <v>1050008</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>9010008</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>30</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="3">
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
         <v>1050009</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>9010009</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>20</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="3">
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="2">
         <v>1050010</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>9010010</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>40</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/EposItem.xlsx
+++ b/Excel/EposItem.xlsx
@@ -5,27 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kg881\OneDrive\Documents\GitHub\wk\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Hub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224EB883-59B9-4583-BD55-0C8F1EFE26D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B39A820-7067-4947-8AEC-CAE658A9BBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -153,12 +162,70 @@
     <t>ItemType</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>점수 재화 중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>점수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>재화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +274,19 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -228,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -251,11 +331,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -263,8 +354,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,313 +643,364 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="8.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.296875" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" customWidth="1"/>
-    <col min="4" max="4" width="11.296875" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="2">
         <v>1050001</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>9010001</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="F2" s="2">
-        <v>0</v>
-      </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2">
         <v>1050002</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>9010002</v>
       </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
-        <v>0</v>
-      </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2">
         <v>1050003</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>9010003</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>20</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2">
         <v>1050004</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>9010004</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>30</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>2</v>
       </c>
-      <c r="H5" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2">
         <v>1050005</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>9010005</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>50</v>
       </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2">
         <v>1050006</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>9010006</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2">
         <v>1050007</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>9010007</v>
       </c>
-      <c r="E8" s="2">
+      <c r="F8" s="2">
         <v>20</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2">
         <v>1050008</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>9010008</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>30</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2">
         <v>1050009</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>9010009</v>
       </c>
-      <c r="E10" s="2">
+      <c r="F10" s="2">
         <v>20</v>
       </c>
-      <c r="F10" s="2">
-        <v>0</v>
-      </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
-      <c r="H10" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2">
         <v>1050010</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>9010010</v>
       </c>
-      <c r="E11" s="2">
+      <c r="F11" s="2">
         <v>40</v>
       </c>
-      <c r="F11" s="2">
-        <v>0</v>
-      </c>
       <c r="G11" s="2">
         <v>0</v>
       </c>
-      <c r="H11" s="3">
-        <v>3</v>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2">
+        <v>1050011</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="2">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2">
+        <v>9010011</v>
+      </c>
+      <c r="F12" s="2">
+        <v>40</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="2">
+        <v>1050012</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9010012</v>
+      </c>
+      <c r="F13" s="2">
+        <v>40</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{170EEB03-501F-428B-B486-FEA254D1ADFE}">
-      <formula1>"MeleeWeapon,RangeWeapon,HpPotion,Armour,Gold,"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B13" xr:uid="{170EEB03-501F-428B-B486-FEA254D1ADFE}">
+      <formula1>"MeleeWeapon,RangeWeapon,HpPotion,Armour,Point"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
